--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,40 +43,49 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fuck</t>
@@ -85,60 +94,66 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>shortages</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -157,97 +172,127 @@
     <t>hand</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
   </si>
 </sst>
 </file>
@@ -605,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -724,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -774,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -824,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8918918918918919</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>0.9302325581395349</v>
@@ -874,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8695652173913043</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.9190600522193212</v>
+        <v>0.9268929503916449</v>
       </c>
       <c r="L7">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8664383561643836</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C9">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8611111111111112</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,16 +1090,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8275862068965517</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7843137254901961</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.775</v>
+        <v>0.76</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.8875</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7692307692307693</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>387</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>387</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.8723404255319149</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,16 +1390,16 @@
         <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.8658536585365854</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="M16">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7407407407407407</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K17">
         <v>0.8611111111111112</v>
@@ -1424,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7364341085271318</v>
+        <v>0.7354497354497355</v>
       </c>
       <c r="C18">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="D18">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1474,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7297297297297297</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.7764705882352941</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7248677248677249</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C20">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.74</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L20">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.717948717948718</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,16 +1640,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.7384615384615385</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,38 +1669,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6949152542372882</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22">
+        <v>0.82</v>
+      </c>
+      <c r="L22">
         <v>41</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>41</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>18</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22">
-        <v>0.7364016736401674</v>
-      </c>
-      <c r="L22">
-        <v>176</v>
-      </c>
-      <c r="M22">
-        <v>176</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1666,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6944444444444444</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1692,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.7307692307692307</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1716,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6451612903225806</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1742,19 +1787,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.7291666666666666</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1766,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1774,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6442953020134228</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C25">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1792,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.7288135593220338</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L25">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1816,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.59375</v>
+        <v>0.625</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1842,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.7254901960784313</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1866,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1874,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5333333333333333</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1892,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.723404255319149</v>
+        <v>0.7517006802721088</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1913,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1924,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.509090909090909</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1942,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.7222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1966,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1974,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.509090909090909</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1992,19 +2037,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.7192982456140351</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2016,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2024,13 +2069,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2042,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.7078651685393258</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L30">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2066,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2074,38 +2119,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.392156862745098</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L31">
         <v>20</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>20</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>31</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L31">
-        <v>46</v>
-      </c>
-      <c r="M31">
-        <v>46</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2116,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2124,13 +2169,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.375</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2142,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.7364016736401674</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2166,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2174,13 +2219,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3506493506493507</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2192,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2216,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2224,13 +2269,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3412698412698413</v>
+        <v>0.425</v>
       </c>
       <c r="C34">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2242,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.589041095890411</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2266,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2274,13 +2319,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1715817694369973</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2292,109 +2337,489 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>309</v>
+        <v>150</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>0.5512820512820513</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>48</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K36">
+        <v>0.6966292134831461</v>
+      </c>
+      <c r="L36">
+        <v>62</v>
+      </c>
+      <c r="M36">
+        <v>62</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.2091152815013405</v>
+      </c>
+      <c r="C37">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>78</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>295</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K37">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L37">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M35">
+      <c r="B38">
+        <v>0.09333333333333334</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>28</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>272</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
+      <c r="M38">
+        <v>22</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.0102803738317757</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>0.12</v>
+      </c>
+      <c r="F39">
+        <v>0.88</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>2118</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L39">
+        <v>45</v>
+      </c>
+      <c r="M39">
+        <v>45</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.009993552546744036</v>
+      </c>
+      <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>0.14</v>
+      </c>
+      <c r="F40">
+        <v>0.86</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3071</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="L40">
         <v>43</v>
       </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.4888888888888889</v>
-      </c>
-      <c r="L36">
-        <v>22</v>
-      </c>
-      <c r="M36">
-        <v>22</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="M40">
+        <v>43</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41">
+        <v>24</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="L42">
+        <v>44</v>
+      </c>
+      <c r="M42">
+        <v>44</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43">
+        <v>0.559322033898305</v>
+      </c>
+      <c r="L43">
+        <v>33</v>
+      </c>
+      <c r="M43">
+        <v>33</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44">
+        <v>0.515625</v>
+      </c>
+      <c r="L44">
+        <v>33</v>
+      </c>
+      <c r="M44">
+        <v>33</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="L46">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.34375</v>
-      </c>
-      <c r="L37">
-        <v>22</v>
-      </c>
-      <c r="M37">
-        <v>22</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.3114754098360656</v>
-      </c>
-      <c r="L38">
+      <c r="M46">
+        <v>23</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47">
+        <v>0.1759259259259259</v>
+      </c>
+      <c r="L47">
         <v>19</v>
       </c>
-      <c r="M38">
-        <v>19</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>42</v>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>0.95</v>
+      </c>
+      <c r="O47">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48">
+        <v>0.1135135135135135</v>
+      </c>
+      <c r="L48">
+        <v>21</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
